--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Documents\Updated TestCases\Ninja\Regression TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shtiwari.TUITRAVEL-AD\Documents\GitHub\QA-Docs\Updated TestCases\Ninja\Regression TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -1311,11 +1311,41 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1354,12 +1384,69 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1377,90 +1464,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1473,9 +1476,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2269,20 +2269,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2394,14 +2394,14 @@
       <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -2447,85 +2447,85 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="64"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="53">
         <f>COUNTIF('Home Page'!A17:A142,"*")</f>
         <v>21</v>
       </c>
-      <c r="C23" s="44"/>
+      <c r="C23" s="54"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="53">
         <f>COUNTIF(Search!A17:A132,"*")</f>
         <v>25</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="54"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="65">
         <f>SUM(B23:B29)</f>
         <v>46</v>
       </c>
-      <c r="C30" s="42"/>
+      <c r="C30" s="66"/>
     </row>
     <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2554,18 +2554,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2576,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,36 +2585,36 @@
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="87"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="67"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2627,7 +2627,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -2638,95 +2638,95 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="68" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70">
+      <c r="C8" s="79"/>
+      <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="49">
         <f>SUM(D6,D7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74">
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="44">
         <f>COUNTIF(G17:G61,"PENDING")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="45">
         <f>COUNTIF(F17:F61,"PENDING")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78">
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="45">
         <f>COUNTIF(G17:G61,"IN PROGRESS")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="45">
         <f>COUNTIF(F17:F61,"IN PROGRESS")</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78">
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="45">
         <f>COUNTIF(G17:G61,"BLOCKED")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="45">
         <f>COUNTIF(F17:F61,"BLOCKED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="55">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="70">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -3098,6 +3098,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B4"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="A13:C13"/>
@@ -3107,7 +3108,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3131,7 +3131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3147,27 +3147,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="87"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -3180,7 +3180,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -3191,95 +3191,95 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="68" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70">
+      <c r="C8" s="79"/>
+      <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="49">
         <f>SUM(D6,D7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74">
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="44">
         <f>COUNTIF(G17:G49,"PENDING")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="45">
         <f>COUNTIF(F17:F49,"PENDING")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78">
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="45">
         <f>COUNTIF(G17:G49,"IN PROGRESS")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="45">
         <f>COUNTIF(F17:F49,"IN PROGRESS")</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78">
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="45">
         <f>COUNTIF(G17:G49,"BLOCKED")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="45">
         <f>COUNTIF(F17:F49,"BLOCKED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="55">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="70">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -3336,7 +3336,7 @@
       <c r="D18" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="50" t="s">
         <v>127</v>
       </c>
       <c r="F18" s="28"/>
@@ -3451,7 +3451,7 @@
         <v>130</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="50" t="s">
         <v>131</v>
       </c>
       <c r="F25" s="28"/>
@@ -3492,14 +3492,14 @@
       <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
     </row>
     <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
@@ -3511,7 +3511,7 @@
       <c r="C29" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="51" t="s">
         <v>142</v>
       </c>
       <c r="E29" s="28"/>
@@ -3528,7 +3528,7 @@
       <c r="C30" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="90" t="s">
+      <c r="D30" s="51" t="s">
         <v>142</v>
       </c>
       <c r="E30" s="28"/>
@@ -3545,7 +3545,7 @@
       <c r="C31" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="90" t="s">
+      <c r="D31" s="51" t="s">
         <v>142</v>
       </c>
       <c r="E31" s="28"/>
@@ -3570,14 +3570,14 @@
       <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94"/>
     </row>
     <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
@@ -3684,7 +3684,7 @@
         <v>130</v>
       </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="89" t="s">
+      <c r="E40" s="50" t="s">
         <v>131</v>
       </c>
       <c r="F40" s="28"/>
@@ -3731,11 +3731,11 @@
       <c r="B43" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="52" t="s">
         <v>152</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="94" t="s">
+      <c r="E43" s="52" t="s">
         <v>153</v>
       </c>
       <c r="F43" s="28"/>
@@ -3743,11 +3743,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="A6:A8"/>
@@ -3755,6 +3750,11 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
     <sheet name="Home Page" sheetId="4" r:id="rId2"/>
     <sheet name="Search" sheetId="5" r:id="rId3"/>
+    <sheet name="Product Deatil Page" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="163">
   <si>
     <t>Project Name:</t>
   </si>
@@ -625,6 +627,41 @@
   </si>
   <si>
     <t>Application display search results as per search term.</t>
+  </si>
+  <si>
+    <t>Verify application displays product detail page when user click on product display on home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Launch Ninja specific URL.
+2. User is on Home Page
+3. Perform search and click on product display as search result.
+</t>
+  </si>
+  <si>
+    <t>Verify application displays product detail page when user click on product display as search result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Launch Ninja specific URL.
+2. User is on Home Page
+3. Click on product.
+4. User is on product detail page.
+</t>
+  </si>
+  <si>
+    <t>Verify application allow user to perform search from search module display on search result page.</t>
+  </si>
+  <si>
+    <t>Verify application displays  search result page when user click on "
+Show all tours and activities"</t>
+  </si>
+  <si>
+    <t>Verify application displays product image in frame and allow user to flash other available images.</t>
+  </si>
+  <si>
+    <t>Application allow user to change image using next and previous button. Also user can change image using click on image icons.</t>
+  </si>
+  <si>
+    <t>Verify application displays header and footer on product detail page.</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1347,6 +1384,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1390,6 +1430,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1446,24 +1504,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1476,6 +1516,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1990,6 +2033,251 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2255,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,20 +2557,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2394,14 +2682,14 @@
       <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -2447,85 +2735,85 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="54">
         <f>COUNTIF('Home Page'!A17:A142,"*")</f>
         <v>21</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="55"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="54">
         <f>COUNTIF(Search!A17:A132,"*")</f>
         <v>25</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="55"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="65">
+      <c r="B30" s="66">
         <f>SUM(B23:B29)</f>
         <v>46</v>
       </c>
-      <c r="C30" s="66"/>
+      <c r="C30" s="67"/>
     </row>
     <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2576,15 +2864,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
@@ -2592,29 +2880,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="87"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-    </row>
-    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="48"/>
       <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="82" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2627,7 +2915,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -2637,12 +2925,12 @@
       </c>
       <c r="D7" s="25"/>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78" t="s">
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -2653,11 +2941,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G61,"PENDING")</f>
         <v>0</v>
@@ -2668,11 +2956,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G61,"IN PROGRESS")</f>
         <v>0</v>
@@ -2683,11 +2971,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G61,"BLOCKED")</f>
         <v>0</v>
@@ -2698,28 +2986,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70">
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="77">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -2751,7 +3039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>90</v>
       </c>
@@ -2800,7 +3088,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
     </row>
-    <row r="20" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>93</v>
       </c>
@@ -2932,7 +3220,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
     </row>
-    <row r="28" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>101</v>
       </c>
@@ -2947,7 +3235,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>102</v>
       </c>
@@ -3131,8 +3419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,27 +3435,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="87"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="82" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -3180,7 +3468,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -3191,11 +3479,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -3206,11 +3494,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G49,"PENDING")</f>
         <v>0</v>
@@ -3221,11 +3509,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G49,"IN PROGRESS")</f>
         <v>0</v>
@@ -3236,11 +3524,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G49,"BLOCKED")</f>
         <v>0</v>
@@ -3251,28 +3539,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70">
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="77">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -3304,7 +3592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>90</v>
       </c>
@@ -3342,7 +3630,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>92</v>
       </c>
@@ -3408,7 +3696,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
     </row>
-    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>96</v>
       </c>
@@ -3474,7 +3762,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>100</v>
       </c>
@@ -3492,14 +3780,14 @@
       <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
     </row>
     <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
@@ -3570,14 +3858,14 @@
       <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="95"/>
     </row>
     <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
@@ -3772,4 +4060,299 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="21">
+        <f>COUNTIF(F17:F49,"PASSED")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="83"/>
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24">
+        <f>COUNTIF(F17:F49,"FAILED")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="43">
+        <f>SUM(C6,C7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="49">
+        <f>SUM(D6,D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="44">
+        <f>COUNTIF(G17:G49,"PENDING")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <f>COUNTIF(F17:F49,"PENDING")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="45">
+        <f>COUNTIF(G17:G49,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <f>COUNTIF(F17:F49,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="45">
+        <f>COUNTIF(G17:G49,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <f>COUNTIF(F17:F49,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77">
+        <f>SUM(D8:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="77">
+        <f>SUM(E8:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="96"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="96"/>
+      <c r="E23" s="96"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="96"/>
+      <c r="E24" s="96"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="96"/>
+      <c r="E25" s="96"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="96"/>
+      <c r="E26" s="96"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="96"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="96"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="96"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="96"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -16,9 +16,9 @@
     <sheet name="Home Page" sheetId="4" r:id="rId2"/>
     <sheet name="Search" sheetId="5" r:id="rId3"/>
     <sheet name="Product Deatil Page" sheetId="6" r:id="rId4"/>
+    <sheet name="Availability Page" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="184">
   <si>
     <t>Project Name:</t>
   </si>
@@ -662,6 +662,104 @@
   </si>
   <si>
     <t>Verify application displays header and footer on product detail page.</t>
+  </si>
+  <si>
+    <t>Verify number of child age dropdown down as per value selected in children drop down.</t>
+  </si>
+  <si>
+    <t>Verify application display below mentioned sections in product description:
+1. Why book this tour
+2. Customer reviews 
+3. Tour information
+4. Activity schedule
+5. Itinerary
+6. Inclusions and Exclusions
+7. cancellation policy
+8. You may also be interested in</t>
+  </si>
+  <si>
+    <t>Verify application allow user to change currency from dropdown display in footer.</t>
+  </si>
+  <si>
+    <t>Application fix this currency change through out the session.</t>
+  </si>
+  <si>
+    <t>Verify application display below mentioned information with all item display under heading "You may also be interested in"
+1. Product Image
+2. Star rating
+3. Product Name
+4. Product description
+5. Book Now button
+6. Product Price</t>
+  </si>
+  <si>
+    <t>Verify application allow user to share product details on social media using social media icons display on product detail page.</t>
+  </si>
+  <si>
+    <t>Application allow user to share and verify shared content on social media.</t>
+  </si>
+  <si>
+    <t>Application display cross button also associated with pane to close the same.</t>
+  </si>
+  <si>
+    <t>Verify application displays map when user click on link "See on map"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Launch Ninja specific URL.
+2. User is on Home Page
+3. Click on product.
+4. User is on product detail page.
+5. Add product in cart
+6. Navigate to product detail page.
+</t>
+  </si>
+  <si>
+    <t>Verify application flash cart information when user perform mouse hover on cart link display on top right corner.</t>
+  </si>
+  <si>
+    <t>Application display cart information with Go to cart button.</t>
+  </si>
+  <si>
+    <t>Verify application navigate user when click on Go to cart button display on mouse hover on cart link</t>
+  </si>
+  <si>
+    <t>Application display consistent added products and price.</t>
+  </si>
+  <si>
+    <t>1. Launch Ninja specific URL.
+2. User is on Home Page
+3. Click on product.
+4. User is on product detail page.
+5. Enter valid information and click on Check availability button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify application displays </t>
+  </si>
+  <si>
+    <t>Verify application displays below mentioned fields:
+1. Product name
+2. Social Icons
+3. Star rating 
+4. Lowest Price guaranteed logo
+5. Product Image</t>
+  </si>
+  <si>
+    <t>Verify application display availability module with below mentioned information:
+1. Product Price
+2. Travel Date (Date / Month Year)
+3. Check Availability
+4. Adult dropdown
+5. Children dropdown
+6. Child policy (IF applicable)</t>
+  </si>
+  <si>
+    <t>Application display product detail page when user click on product display.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify application display "Cancellation policy" in floating pane when user click on Cancellation policy link. </t>
+  </si>
+  <si>
+    <t>Application displays map in floating pane with close button.</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1384,8 +1482,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1424,12 +1525,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1516,9 +1611,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2278,6 +2370,251 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2543,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,20 +2894,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,14 +3019,14 @@
       <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -2735,85 +3072,88 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="66"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="55">
         <f>COUNTIF('Home Page'!A17:A142,"*")</f>
         <v>21</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="56"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="55">
         <f>COUNTIF(Search!A17:A132,"*")</f>
         <v>25</v>
       </c>
-      <c r="C24" s="55"/>
+      <c r="C24" s="56"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
+      <c r="B25" s="55">
+        <f>COUNTIF('Product Deatil Page'!A17:A39,"*")</f>
+        <v>17</v>
+      </c>
+      <c r="C25" s="56"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="66">
+      <c r="B30" s="53">
         <f>SUM(B23:B29)</f>
-        <v>46</v>
-      </c>
-      <c r="C30" s="67"/>
+        <v>63</v>
+      </c>
+      <c r="C30" s="54"/>
     </row>
     <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2842,18 +3182,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2880,20 +3220,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
@@ -2902,7 +3242,7 @@
       <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2915,7 +3255,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -2926,11 +3266,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -2941,11 +3281,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G61,"PENDING")</f>
         <v>0</v>
@@ -2956,11 +3296,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G61,"IN PROGRESS")</f>
         <v>0</v>
@@ -2971,11 +3311,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G61,"BLOCKED")</f>
         <v>0</v>
@@ -2986,28 +3326,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77">
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="76">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -3419,7 +3759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3435,27 +3775,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -3468,7 +3808,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -3479,11 +3819,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -3494,11 +3834,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G49,"PENDING")</f>
         <v>0</v>
@@ -3509,11 +3849,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G49,"IN PROGRESS")</f>
         <v>0</v>
@@ -3524,11 +3864,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G49,"BLOCKED")</f>
         <v>0</v>
@@ -3539,28 +3879,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77">
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="76">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -3780,14 +4120,14 @@
       <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
     </row>
     <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
@@ -3858,14 +4198,14 @@
       <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="95"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94"/>
     </row>
     <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
@@ -4064,10 +4404,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,60 +4417,60 @@
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="21">
-        <f>COUNTIF(F17:F49,"PASSED")</f>
+        <f>COUNTIF(F17:F46,"PASSED")</f>
         <v>0</v>
       </c>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="24">
-        <f>COUNTIF(F17:F49,"FAILED")</f>
+        <f>COUNTIF(F17:F46,"FAILED")</f>
         <v>0</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -4141,73 +4481,73 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="44">
-        <f>COUNTIF(G17:G49,"PENDING")</f>
+        <f>COUNTIF(G17:G46,"PENDING")</f>
         <v>0</v>
       </c>
       <c r="E9" s="45">
-        <f>COUNTIF(F17:F49,"PENDING")</f>
+        <f>COUNTIF(F17:F46,"PENDING")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="45">
-        <f>COUNTIF(G17:G49,"IN PROGRESS")</f>
+        <f>COUNTIF(G17:G46,"IN PROGRESS")</f>
         <v>0</v>
       </c>
       <c r="E10" s="45">
-        <f>COUNTIF(F17:F49,"IN PROGRESS")</f>
+        <f>COUNTIF(F17:F46,"IN PROGRESS")</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="45">
-        <f>COUNTIF(G17:G49,"BLOCKED")</f>
+        <f>COUNTIF(G17:G46,"BLOCKED")</f>
         <v>0</v>
       </c>
       <c r="E11" s="45">
-        <f>COUNTIF(F17:F49,"BLOCKED")</f>
+        <f>COUNTIF(F17:F46,"BLOCKED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77">
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="76">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -4276,9 +4616,13 @@
       <c r="B19" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="29" t="s">
         <v>158</v>
       </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -4287,57 +4631,433 @@
       <c r="B20" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="52" t="s">
         <v>159</v>
       </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="B21" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="96" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="52" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="96" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="96"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="96"/>
-      <c r="E23" s="96"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="96"/>
-      <c r="E24" s="96"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="96"/>
-      <c r="E25" s="96"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="96"/>
-      <c r="E26" s="96"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="96"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="96"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="96"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="96"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="96"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="21">
+        <f>COUNTIF(F17:F46,"PASSED")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="82"/>
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24">
+        <f>COUNTIF(F17:F46,"FAILED")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="43">
+        <f>SUM(C6,C7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="49">
+        <f>SUM(D6,D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="44">
+        <f>COUNTIF(G17:G46,"PENDING")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <f>COUNTIF(F17:F46,"PENDING")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="45">
+        <f>COUNTIF(G17:G46,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <f>COUNTIF(F17:F46,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="45">
+        <f>COUNTIF(G17:G46,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <f>COUNTIF(F17:F46,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76">
+        <f>SUM(D8:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="76">
+        <f>SUM(E8:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="194">
   <si>
     <t>Project Name:</t>
   </si>
@@ -726,16 +726,6 @@
     <t>Application display consistent added products and price.</t>
   </si>
   <si>
-    <t>1. Launch Ninja specific URL.
-2. User is on Home Page
-3. Click on product.
-4. User is on product detail page.
-5. Enter valid information and click on Check availability button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify application displays </t>
-  </si>
-  <si>
     <t>Verify application displays below mentioned fields:
 1. Product name
 2. Social Icons
@@ -760,6 +750,68 @@
   </si>
   <si>
     <t>Application displays map in floating pane with close button.</t>
+  </si>
+  <si>
+    <t>Verify application displays availability as per date selected by user.</t>
+  </si>
+  <si>
+    <t>1. Launch Ninja specific URL.
+2. User is on Home Page
+3. Click on product that have options.
+4. User is on product detail page.
+5. Enter valid information and click on Check availability button</t>
+  </si>
+  <si>
+    <t>Verify application displays cart page directly instead of availabity page.</t>
+  </si>
+  <si>
+    <t>Verify appliction dislays below mentioed information on availibilty page:
+1. Header
+2. Search Module
+3. Product name
+4. Product Options (Radio Button)
+5. Product Price
+6. Button "Change date/ number of travellers"
+7. Lowest price guaranteed logo
+8. Add to cart button
+9. View price guide link
+10. When does it run?
+11. Call us 24/7</t>
+  </si>
+  <si>
+    <t>Verify application display below mentioed information with each option:
+1. Option Description
+2. Price
+3. Child Price
+4. Product Price</t>
+  </si>
+  <si>
+    <t>Application allow user to select from available options and add to cart.</t>
+  </si>
+  <si>
+    <t>Application display same product detail page same as avalibility page.</t>
+  </si>
+  <si>
+    <t>1. Launch Ninja specific URL.
+2. User is on Home Page
+3. Click on product that always available and no options.
+4. User is on product detail page.
+5. Enter valid information and click on Check availability button.</t>
+  </si>
+  <si>
+    <t>Verify application display product detail page when user click on 
+Change date/ number of travellers button.</t>
+  </si>
+  <si>
+    <t>Verify application display same number of children and adult as selected from product detail page.</t>
+  </si>
+  <si>
+    <t>URL: localparistours.com
+Product ID: 2903</t>
+  </si>
+  <si>
+    <t>URL: localparistours.com
+Product ID: 24526</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1611,6 +1663,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4406,7 +4477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -4679,7 +4750,7 @@
         <v>157</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="52"/>
@@ -4694,7 +4765,7 @@
         <v>157</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="52"/>
@@ -4760,7 +4831,7 @@
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -4790,7 +4861,7 @@
         <v>157</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="52" t="s">
@@ -4811,7 +4882,7 @@
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
@@ -4870,18 +4941,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -5044,20 +5116,352 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:7" s="96" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="95" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+        <v>183</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="18" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="1:7" s="96" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+    </row>
+    <row r="20" spans="1:7" s="96" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="1:7" s="100" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+    </row>
+    <row r="22" spans="1:7" s="96" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+    </row>
+    <row r="24" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+    </row>
+    <row r="25" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+    </row>
+    <row r="27" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+    </row>
+    <row r="28" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+    </row>
+    <row r="29" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+    </row>
+    <row r="30" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+    </row>
+    <row r="31" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+    </row>
+    <row r="33" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+    </row>
+    <row r="34" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+    </row>
+    <row r="35" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+    </row>
+    <row r="36" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+    </row>
+    <row r="37" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+    </row>
+    <row r="38" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+    </row>
+    <row r="39" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+    </row>
+    <row r="40" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+    </row>
+    <row r="41" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+    </row>
+    <row r="42" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+    </row>
+    <row r="43" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+    </row>
+    <row r="44" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+    </row>
+    <row r="45" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+    </row>
+    <row r="46" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+    </row>
+    <row r="47" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="203">
   <si>
     <t>Project Name:</t>
   </si>
@@ -812,6 +812,41 @@
   <si>
     <t>URL: localparistours.com
 Product ID: 24526</t>
+  </si>
+  <si>
+    <t>URL: localparistours.com
+Product ID: 24442</t>
+  </si>
+  <si>
+    <t>1. Launch Ninja specific URL.
+2. User is on Home Page
+3. Click on product that have options on some specific dates.
+4. User is on product detail page.
+5. Enter valid information and click on Check availability button</t>
+  </si>
+  <si>
+    <t>Verify application displays weekly avilibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify application displays links to navigate availabilty for next and previous link.
+1. Previous week
+2. Next week
+</t>
+  </si>
+  <si>
+    <t>Verify application disable the dates on which product not available.</t>
+  </si>
+  <si>
+    <t>Verify application allow user to navigate between available dates of week.</t>
+  </si>
+  <si>
+    <t>User click on all enabled dates and verify options displays.</t>
+  </si>
+  <si>
+    <t>Verify application allow user to select options.</t>
+  </si>
+  <si>
+    <t>Application allow user to add to cart.</t>
   </si>
 </sst>
 </file>
@@ -2952,7 +2987,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+      <selection activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,7 +3227,10 @@
       <c r="A26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="55"/>
+      <c r="B26" s="55">
+        <f>COUNTIF('Availability Page'!A17:A49,"*")</f>
+        <v>12</v>
+      </c>
       <c r="C26" s="56"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3222,7 +3260,7 @@
       </c>
       <c r="B30" s="53">
         <f>SUM(B23:B29)</f>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C30" s="54"/>
     </row>
@@ -4943,8 +4981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5206,7 +5244,9 @@
       <c r="G21" s="97"/>
     </row>
     <row r="22" spans="1:7" s="96" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="95" t="s">
+        <v>95</v>
+      </c>
       <c r="B22" s="98" t="s">
         <v>183</v>
       </c>
@@ -5220,53 +5260,99 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
     </row>
-    <row r="23" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="19"/>
+    <row r="23" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="E23" s="29"/>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
     </row>
-    <row r="24" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="19"/>
+    <row r="24" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="E24" s="29"/>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
     </row>
-    <row r="25" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="19"/>
+    <row r="25" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="E25" s="29"/>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
     </row>
-    <row r="26" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="29"/>
+    <row r="26" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>200</v>
+      </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
     </row>
-    <row r="27" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="29"/>
+    <row r="27" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>202</v>
+      </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
     </row>
     <row r="28" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="95" t="s">
+        <v>101</v>
+      </c>
       <c r="B28" s="19"/>
       <c r="C28" s="29"/>
       <c r="D28" s="19"/>

--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="209">
   <si>
     <t>Project Name:</t>
   </si>
@@ -847,6 +847,32 @@
   </si>
   <si>
     <t>Application allow user to add to cart.</t>
+  </si>
+  <si>
+    <t>1. Launch Ninja specific URL.
+2. User is on Home Page and add some product in cart.
+3. Click on product that have options on some specific dates.
+4. User is on product detail page.
+5. Enter valid information and click on Check availability button</t>
+  </si>
+  <si>
+    <t>Verify application displays cart information when user mouse hover on top right corner.</t>
+  </si>
+  <si>
+    <t>Application display Go To Cart button.</t>
+  </si>
+  <si>
+    <t>Verify application display multi save image when user check avilibity after adding one product in cart.</t>
+  </si>
+  <si>
+    <t>1. Launch Ninja specific URL.
+2. User is on Home Page and one product in cart.
+3. Click on product that have options on some specific dates.
+4. User is on product detail page.
+5. Enter valid information and click on Check availability button</t>
+  </si>
+  <si>
+    <t>Verify application substract discount cost and diplay total cost on avilibility page.</t>
   </si>
 </sst>
 </file>
@@ -3228,8 +3254,8 @@
         <v>61</v>
       </c>
       <c r="B26" s="55">
-        <f>COUNTIF('Availability Page'!A17:A49,"*")</f>
-        <v>12</v>
+        <f>COUNTIF('Availability Page'!A17:A30,"*")</f>
+        <v>14</v>
       </c>
       <c r="C26" s="56"/>
     </row>
@@ -3260,7 +3286,7 @@
       </c>
       <c r="B30" s="53">
         <f>SUM(B23:B29)</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C30" s="54"/>
     </row>
@@ -4979,10 +5005,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,7 +5050,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="21">
-        <f>COUNTIF(F17:F46,"PASSED")</f>
+        <f>COUNTIF(F17:F30,"PASSED")</f>
         <v>0</v>
       </c>
       <c r="D6" s="22"/>
@@ -5035,7 +5061,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="24">
-        <f>COUNTIF(F17:F46,"FAILED")</f>
+        <f>COUNTIF(F17:F30,"FAILED")</f>
         <v>0</v>
       </c>
       <c r="D7" s="25"/>
@@ -5062,11 +5088,11 @@
       <c r="B9" s="87"/>
       <c r="C9" s="88"/>
       <c r="D9" s="44">
-        <f>COUNTIF(G17:G46,"PENDING")</f>
+        <f>COUNTIF(G17:G30,"PENDING")</f>
         <v>0</v>
       </c>
       <c r="E9" s="45">
-        <f>COUNTIF(F17:F46,"PENDING")</f>
+        <f>COUNTIF(F17:F30,"PENDING")</f>
         <v>0</v>
       </c>
     </row>
@@ -5077,11 +5103,11 @@
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
       <c r="D10" s="45">
-        <f>COUNTIF(G17:G46,"IN PROGRESS")</f>
+        <f>COUNTIF(G17:G30,"IN PROGRESS")</f>
         <v>0</v>
       </c>
       <c r="E10" s="45">
-        <f>COUNTIF(F17:F46,"IN PROGRESS")</f>
+        <f>COUNTIF(F17:F30,"IN PROGRESS")</f>
         <v>0</v>
       </c>
     </row>
@@ -5092,11 +5118,11 @@
       <c r="B11" s="90"/>
       <c r="C11" s="91"/>
       <c r="D11" s="45">
-        <f>COUNTIF(G17:G46,"BLOCKED")</f>
+        <f>COUNTIF(G17:G30,"BLOCKED")</f>
         <v>0</v>
       </c>
       <c r="E11" s="45">
-        <f>COUNTIF(F17:F46,"BLOCKED")</f>
+        <f>COUNTIF(F17:F30,"BLOCKED")</f>
         <v>0</v>
       </c>
     </row>
@@ -5349,205 +5375,58 @@
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
     </row>
-    <row r="28" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="96" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="29"/>
+      <c r="B28" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>205</v>
+      </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
     </row>
-    <row r="29" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="19"/>
+    <row r="29" spans="1:7" s="96" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="98" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="E29" s="29"/>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
     </row>
-    <row r="30" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="19"/>
+    <row r="30" spans="1:7" s="96" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="98" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="E30" s="29"/>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
-    </row>
-    <row r="31" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-    </row>
-    <row r="32" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-    </row>
-    <row r="33" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-    </row>
-    <row r="34" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-    </row>
-    <row r="35" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-    </row>
-    <row r="36" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-    </row>
-    <row r="37" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-    </row>
-    <row r="38" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-    </row>
-    <row r="39" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-    </row>
-    <row r="40" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-    </row>
-    <row r="41" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-    </row>
-    <row r="42" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-    </row>
-    <row r="43" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-    </row>
-    <row r="44" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-    </row>
-    <row r="45" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-    </row>
-    <row r="46" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-    </row>
-    <row r="47" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Search" sheetId="5" r:id="rId3"/>
     <sheet name="Product Deatil Page" sheetId="6" r:id="rId4"/>
     <sheet name="Availability Page" sheetId="7" r:id="rId5"/>
+    <sheet name="Cart Page" sheetId="8" r:id="rId6"/>
+    <sheet name="Checkout" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="259">
   <si>
     <t>Project Name:</t>
   </si>
@@ -873,6 +875,224 @@
   </si>
   <si>
     <t>Verify application substract discount cost and diplay total cost on avilibility page.</t>
+  </si>
+  <si>
+    <t>Verify application display cart page.</t>
+  </si>
+  <si>
+    <t>Application displays products added by customer.</t>
+  </si>
+  <si>
+    <t>Verify application display header and footer on cart page.</t>
+  </si>
+  <si>
+    <t>Verify items display on cart page with product added in cart.
+1. Product Name
+2. Product description
+3. Key facts
+4. Total product cost
+5. Change date/ number of travellers
+6. View price guide
+7. Remove
+8. Price per person
+9. Who's going
+10. When you're going</t>
+  </si>
+  <si>
+    <t>Verify application navigate user to product detail page for same product.</t>
+  </si>
+  <si>
+    <t>1. Launch Ninja specific URL.
+2. User is on Home Page
+3. Click on product that have options.
+4. User is on product detail page.
+5. Enter valid information and click on Check availability button
+6. User is on availability page and click on add to cart.</t>
+  </si>
+  <si>
+    <t>All links working as expected in both header and footer.</t>
+  </si>
+  <si>
+    <t>Application display all these fields for all products added in cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+2. click on Change date/ number of travellers button.
+</t>
+  </si>
+  <si>
+    <t>Application display same information in availability module as entered by user while adding the product into cart.</t>
+  </si>
+  <si>
+    <t>Verify application allow user to change travel date/ number of travellers on product detail page and check availability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+2. Add another product.
+3. User is in cart page.
+</t>
+  </si>
+  <si>
+    <t>Verify application added items in cart in queue fashion.</t>
+  </si>
+  <si>
+    <t>Verify application displays Confirmation alert box with message "Are you sure you want to delete &lt;&lt;Product Name&gt;&gt; from your cart?", with "Yes" and "NO" button</t>
+  </si>
+  <si>
+    <t>Application remove product when user click on yes button and do nothing when click on NO button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+2. Add 2 another products in cart.
+3. User is in cart page.
+4. Click on remove associated with product in cart.
+</t>
+  </si>
+  <si>
+    <t>Application update the Total Price on cart page as per remaining products in cart.</t>
+  </si>
+  <si>
+    <t>Verify application apply multisave discount on each product added starting from second product onwards.</t>
+  </si>
+  <si>
+    <t>Application apply multisave discount on all products added in cart, except first product added.</t>
+  </si>
+  <si>
+    <t>Application maintain queue while delete product from cart and product on the front not with discount.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+2. Add 2 another products in cart.
+3. User is in cart page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+2. Add 2 another products in cart.
+3. User is in cart page.
+4. Click on remove link.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+2. Add 2 another products in cart.
+3. User is in cart page.
+4. Click on Continue shopping button.
+</t>
+  </si>
+  <si>
+    <t>Verify application navigate user on home page when user click on 
+Continue shopping button.</t>
+  </si>
+  <si>
+    <t>Verify application displays message "There are no items in your travel cart. Click on "Continue Shopping" to resume your shopping." when user remove all products from cart using remove link.</t>
+  </si>
+  <si>
+    <t>Verify application displays cross sell module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+</t>
+  </si>
+  <si>
+    <t>Verify application display "lowest price guarantee" logo.</t>
+  </si>
+  <si>
+    <t>Verify application display "Secure Checkout" button</t>
+  </si>
+  <si>
+    <t>Verify application displays Checkout page when user click on "Secure Checkout" button</t>
+  </si>
+  <si>
+    <t>1. User is on availability page and click on add to cart.
+2. Click on "Secure Checkout" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+2. Click on book now button display with products display under cross selling module
+</t>
+  </si>
+  <si>
+    <t>Verify application remove relative product from cart.</t>
+  </si>
+  <si>
+    <t>Verify application remove product and adjust remaining products multisave accordingly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+2. Add 2 another products in cart.
+3. User is in cart page.
+4. Remove all products using Remove link associated with products on cart page.
+</t>
+  </si>
+  <si>
+    <t>Verify application display below mentioned item with each product display on cross sell module:
+1. Heading "Book additional activities and get 5%off! We recommend..."
+2. Product Image
+3. Star rating
+4. Product Name
+5. Product description
+6. Regular price 
+7. Discounted price (Multisave options)</t>
+  </si>
+  <si>
+    <t>Verify application display product detail page.</t>
+  </si>
+  <si>
+    <t>Verify for all book now buttons application navigated to product detail page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+</t>
+  </si>
+  <si>
+    <t>Verify applicationn displays "Do you have a gift voucher/discount code?"</t>
+  </si>
+  <si>
+    <t>Verify application display text box when user click on "Do you have a gift voucher/discount code?" and display below mentioned items:
+1. Text Label "Enter your voucher/discount code."
+2. Link "Apply discount"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+2. Click on "Do you have a gift voucher/discount code?"
+</t>
+  </si>
+  <si>
+    <t>Verify application displays below mentioned message when user enter invalid coupan:
+"The Gift Voucher / Promotional Code is either invalid or has already been consumed"</t>
+  </si>
+  <si>
+    <t>1. User is on availability page and click on add to cart.
+2. Click on "Do you have a gift voucher/discount code?"
+3. Enter invlaid code 
+4. Click on "Apply discount"</t>
+  </si>
+  <si>
+    <t>Verify application displays Text "Click CHECKOUT to complete traveller details and pay."</t>
+  </si>
+  <si>
+    <t>Verify application display "Checkout" page when user click on CHECKOUT link.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on availability page and click on add to cart.
+2. Click on CHECKOUT link.
+</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>1. Launch Ninja specific URL.
+2. User is on Home Page
+3. Click on product that have options.
+4. User is on product detail page.
+5. Enter valid information and click on Check availability button
+6. User is on availability page and click on add to cart.
+7. User is on Cart page and click on secure checkout</t>
+  </si>
+  <si>
+    <t>Verify application display Checkout page.</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1595,11 +1815,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1638,6 +1871,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1725,24 +1964,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2747,6 +2970,496 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3010,10 +3723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C27"/>
+      <selection activeCell="B28" sqref="B28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,20 +3739,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,14 +3864,14 @@
       <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -3204,131 +3917,142 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="66"/>
+      <c r="C22" s="70"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="59">
         <f>COUNTIF('Home Page'!A17:A142,"*")</f>
         <v>21</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="60"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="55">
+      <c r="B24" s="59">
         <f>COUNTIF(Search!A17:A132,"*")</f>
         <v>25</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="60"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B25" s="59">
         <f>COUNTIF('Product Deatil Page'!A17:A39,"*")</f>
         <v>17</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="60"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="55">
+      <c r="B26" s="59">
         <f>COUNTIF('Availability Page'!A17:A30,"*")</f>
         <v>14</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="60"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
+      <c r="B27" s="59">
+        <f>COUNTIF('Cart Page'!A17:A70,"*")</f>
+        <v>23</v>
+      </c>
+      <c r="C27" s="60"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="53">
-        <f>SUM(B23:B29)</f>
-        <v>77</v>
-      </c>
-      <c r="C30" s="54"/>
-    </row>
-    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
+      <c r="B31" s="71">
+        <f>SUM(B23:B30)</f>
+        <v>100</v>
+      </c>
+      <c r="C31" s="72"/>
     </row>
     <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3355,20 +4079,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
@@ -3377,7 +4101,7 @@
       <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="87" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -3390,7 +4114,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -3401,11 +4125,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84" t="s">
+      <c r="A8" s="89"/>
+      <c r="B8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -3416,11 +4140,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G61,"PENDING")</f>
         <v>0</v>
@@ -3431,11 +4155,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G61,"IN PROGRESS")</f>
         <v>0</v>
@@ -3446,11 +4170,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G61,"BLOCKED")</f>
         <v>0</v>
@@ -3461,28 +4185,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76">
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="82">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -3880,7 +4604,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Cover Page'!$A$38:$A$42</xm:f>
+            <xm:f>'Cover Page'!$A$39:$A$43</xm:f>
           </x14:formula1>
           <xm:sqref>F17:F37</xm:sqref>
         </x14:dataValidation>
@@ -3910,27 +4634,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="87" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -3943,7 +4667,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -3954,11 +4678,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84" t="s">
+      <c r="A8" s="89"/>
+      <c r="B8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -3969,11 +4693,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G49,"PENDING")</f>
         <v>0</v>
@@ -3984,11 +4708,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G49,"IN PROGRESS")</f>
         <v>0</v>
@@ -3999,11 +4723,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G49,"BLOCKED")</f>
         <v>0</v>
@@ -4014,28 +4738,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76">
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="82">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -4255,14 +4979,14 @@
       <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="100"/>
     </row>
     <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
@@ -4333,14 +5057,14 @@
       <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="100"/>
     </row>
     <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
@@ -4519,6 +5243,14 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="B28:G28"/>
   </mergeCells>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29:F32">
+      <formula1>$A$39:$A$43</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34:F42">
+      <formula1>$A$39:$A$43</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4527,9 +5259,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Cover Page'!$A$38:$A$42</xm:f>
+            <xm:f>'Cover Page'!$A$39:$A$43</xm:f>
           </x14:formula1>
-          <xm:sqref>F17:F27 F29:F32 F34:F42</xm:sqref>
+          <xm:sqref>F17:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4541,7 +5273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -4557,27 +5289,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="87" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -4590,7 +5322,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -4601,11 +5333,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84" t="s">
+      <c r="A8" s="89"/>
+      <c r="B8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -4616,11 +5348,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G46,"PENDING")</f>
         <v>0</v>
@@ -4631,11 +5363,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G46,"IN PROGRESS")</f>
         <v>0</v>
@@ -4646,11 +5378,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G46,"BLOCKED")</f>
         <v>0</v>
@@ -4661,28 +5393,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76">
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="82">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -5007,8 +5739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD59"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5023,27 +5755,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="87" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -5056,7 +5788,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -5067,11 +5799,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84" t="s">
+      <c r="A8" s="89"/>
+      <c r="B8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -5082,11 +5814,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G30,"PENDING")</f>
         <v>0</v>
@@ -5097,11 +5829,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G30,"IN PROGRESS")</f>
         <v>0</v>
@@ -5112,11 +5844,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G30,"BLOCKED")</f>
         <v>0</v>
@@ -5127,28 +5859,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76">
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="82">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -5180,8 +5912,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="96" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
+    <row r="17" spans="1:7" s="54" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -5197,8 +5929,8 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+    <row r="18" spans="1:7" s="54" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -5214,8 +5946,8 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="1:7" s="96" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+    <row r="19" spans="1:7" s="54" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -5231,8 +5963,8 @@
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
     </row>
-    <row r="20" spans="1:7" s="96" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+    <row r="20" spans="1:7" s="54" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -5250,30 +5982,30 @@
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
     </row>
-    <row r="21" spans="1:7" s="100" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+    <row r="21" spans="1:7" s="58" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="57" t="s">
         <v>190</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-    </row>
-    <row r="22" spans="1:7" s="96" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" s="54" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="56" t="s">
         <v>183</v>
       </c>
       <c r="C22" s="29" t="s">
@@ -5286,11 +6018,11 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
     </row>
-    <row r="23" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
+    <row r="23" spans="1:7" s="54" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="56" t="s">
         <v>195</v>
       </c>
       <c r="C23" s="29" t="s">
@@ -5303,11 +6035,11 @@
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
     </row>
-    <row r="24" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+    <row r="24" spans="1:7" s="54" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="56" t="s">
         <v>195</v>
       </c>
       <c r="C24" s="29" t="s">
@@ -5320,11 +6052,11 @@
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
     </row>
-    <row r="25" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="95" t="s">
+    <row r="25" spans="1:7" s="54" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="56" t="s">
         <v>195</v>
       </c>
       <c r="C25" s="29" t="s">
@@ -5337,11 +6069,11 @@
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
     </row>
-    <row r="26" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="95" t="s">
+    <row r="26" spans="1:7" s="54" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="56" t="s">
         <v>195</v>
       </c>
       <c r="C26" s="29" t="s">
@@ -5356,11 +6088,11 @@
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
     </row>
-    <row r="27" spans="1:7" s="96" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="s">
+    <row r="27" spans="1:7" s="54" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="56" t="s">
         <v>195</v>
       </c>
       <c r="C27" s="29" t="s">
@@ -5375,11 +6107,11 @@
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
     </row>
-    <row r="28" spans="1:7" s="96" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" s="95" t="s">
+    <row r="28" spans="1:7" s="54" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="56" t="s">
         <v>203</v>
       </c>
       <c r="C28" s="29" t="s">
@@ -5394,11 +6126,11 @@
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
     </row>
-    <row r="29" spans="1:7" s="96" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="95" t="s">
+    <row r="29" spans="1:7" s="54" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="56" t="s">
         <v>207</v>
       </c>
       <c r="C29" s="29" t="s">
@@ -5411,11 +6143,11 @@
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
     </row>
-    <row r="30" spans="1:7" s="96" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="95" t="s">
+    <row r="30" spans="1:7" s="54" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="56" t="s">
         <v>207</v>
       </c>
       <c r="C30" s="29" t="s">
@@ -5427,6 +6159,1289 @@
       <c r="E30" s="29"/>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G125"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="21">
+        <f>COUNTIF(F17:F31,"PASSED")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="88"/>
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24">
+        <f>COUNTIF(F17:F31,"FAILED")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89"/>
+      <c r="B8" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="43">
+        <f>SUM(C6,C7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="49">
+        <f>SUM(D6,D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="44">
+        <f>COUNTIF(G17:G31,"PENDING")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <f>COUNTIF(F17:F31,"PENDING")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="45">
+        <f>COUNTIF(G17:G31,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <f>COUNTIF(F17:F31,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="45">
+        <f>COUNTIF(G17:G31,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <f>COUNTIF(F17:F31,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82">
+        <f>SUM(D8:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="82">
+        <f>SUM(E8:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="101"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="101"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="101"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="101"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="101"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="101"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="101"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="101"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="101"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="101"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="101"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="101"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="101"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="101"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="101"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="101"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="101"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="101"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="101"/>
+      <c r="C77" s="101"/>
+      <c r="D77" s="101"/>
+      <c r="E77" s="101"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="101"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="101"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="101"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="101"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="101"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="101"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="101"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="101"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="101"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="101"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="101"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="101"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="101"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="101"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="101"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="101"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="101"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="101"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="101"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="101"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="101"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="101"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="101"/>
+      <c r="E94" s="101"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="101"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="101"/>
+      <c r="E95" s="101"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="101"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="101"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="101"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="101"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="101"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="101"/>
+      <c r="C99" s="101"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="101"/>
+      <c r="C100" s="101"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="101"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="101"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="101"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="101"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="101"/>
+      <c r="C103" s="101"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="101"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="101"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="101"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="101"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="101"/>
+      <c r="C106" s="101"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="101"/>
+      <c r="C107" s="101"/>
+      <c r="D107" s="101"/>
+      <c r="E107" s="101"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="101"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="101"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="101"/>
+      <c r="C109" s="101"/>
+      <c r="D109" s="101"/>
+      <c r="E109" s="101"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="101"/>
+      <c r="C110" s="101"/>
+      <c r="D110" s="101"/>
+      <c r="E110" s="101"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="101"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="101"/>
+      <c r="C112" s="101"/>
+      <c r="D112" s="101"/>
+      <c r="E112" s="101"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="101"/>
+      <c r="C113" s="101"/>
+      <c r="D113" s="101"/>
+      <c r="E113" s="101"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="101"/>
+      <c r="C114" s="101"/>
+      <c r="D114" s="101"/>
+      <c r="E114" s="101"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="101"/>
+      <c r="C115" s="101"/>
+      <c r="D115" s="101"/>
+      <c r="E115" s="101"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="101"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="101"/>
+      <c r="E116" s="101"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="101"/>
+      <c r="C117" s="101"/>
+      <c r="D117" s="101"/>
+      <c r="E117" s="101"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="101"/>
+      <c r="C118" s="101"/>
+      <c r="D118" s="101"/>
+      <c r="E118" s="101"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="101"/>
+      <c r="C119" s="101"/>
+      <c r="D119" s="101"/>
+      <c r="E119" s="101"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="101"/>
+      <c r="C120" s="101"/>
+      <c r="D120" s="101"/>
+      <c r="E120" s="101"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="101"/>
+      <c r="C121" s="101"/>
+      <c r="D121" s="101"/>
+      <c r="E121" s="101"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="101"/>
+      <c r="C122" s="101"/>
+      <c r="D122" s="101"/>
+      <c r="E122" s="101"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="101"/>
+      <c r="C123" s="101"/>
+      <c r="D123" s="101"/>
+      <c r="E123" s="101"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="101"/>
+      <c r="C124" s="101"/>
+      <c r="D124" s="101"/>
+      <c r="E124" s="101"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="101"/>
+      <c r="C125" s="101"/>
+      <c r="D125" s="101"/>
+      <c r="E125" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="21">
+        <f>COUNTIF(F17:F31,"PASSED")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="88"/>
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24">
+        <f>COUNTIF(F17:F31,"FAILED")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89"/>
+      <c r="B8" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="43">
+        <f>SUM(C6,C7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="49">
+        <f>SUM(D6,D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="44">
+        <f>COUNTIF(G17:G31,"PENDING")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <f>COUNTIF(F17:F31,"PENDING")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="45">
+        <f>COUNTIF(G17:G31,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <f>COUNTIF(F17:F31,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="45">
+        <f>COUNTIF(G17:G31,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <f>COUNTIF(F17:F31,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82">
+        <f>SUM(D8:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="82">
+        <f>SUM(E8:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="685" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="280">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1083,16 +1083,130 @@
     <t>Checkout</t>
   </si>
   <si>
+    <t>Verify application display Checkout page.</t>
+  </si>
+  <si>
     <t>1. Launch Ninja specific URL.
 2. User is on Home Page
 3. Click on product that have options.
 4. User is on product detail page.
 5. Enter valid information and click on Check availability button
 6. User is on availability page and click on add to cart.
-7. User is on Cart page and click on secure checkout</t>
-  </si>
-  <si>
-    <t>Verify application display Checkout page.</t>
+7. User is on Cart page and click on secure checkout
+8. User is on Checkout page.</t>
+  </si>
+  <si>
+    <t>1. User is on Cart page and click on secure checkout
+2. User is on Checkout page.</t>
+  </si>
+  <si>
+    <t>Verify application display below mentioned items in header:
+1. Text "A part of TUI Travel PLC group of companies”
+2. About US
+3. WebSite Logo
+4. Contact Number
+5. Lowest Price Guarantee
+6. Flexible Cancellation
+7. Local Expertise
+8. Happy Customers
+9. Read reviews</t>
+  </si>
+  <si>
+    <t>Verify Application display below mentioned tabs:
+1. Your details (Highlighted)
+2. Payment
+3. Confirm</t>
+  </si>
+  <si>
+    <t>Verify aaplication displays below mentioned information in footer:
+1. Your payment protected by (Logo)
+2. About Us 
+3. Customer Care 
+4. Terms &amp; Conditions 
+5. Isango logo
+6. Social Media Icons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application navigate user to appropriate page when user click on any link display </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify application display below mentioned information and items for all product added:
+1. Product Name
+2. Product Price
+3. Location
+4. Start date
+5. Availability
+6. Lead Traveller Name (First Name and Last Name)
+7. Meeting point
+8. Special request 
+</t>
+  </si>
+  <si>
+    <t>Application display these informtion with eacch product display on checkout page.</t>
+  </si>
+  <si>
+    <t>Verify application displays below mentioned information in right pane:
+1. Booking Summary
+2. Call us 24/7</t>
+  </si>
+  <si>
+    <t>Verify below mentioned items display for each product under Booking Summary:
+1. Product Name
+2. Product Price
+3. Cancellation policy
+4. Show details</t>
+  </si>
+  <si>
+    <t>1. User is on Cart page and click on secure checkout
+2. User is on Checkout page.
+3. Click on "Cancellation policy" display under Booking summery</t>
+  </si>
+  <si>
+    <t>Verify application display pane with cross button to close the same, when user click on link "Cancellation policy" display under Booking Summery</t>
+  </si>
+  <si>
+    <t>Verify application display below mentioned information when user click on "Show details" display under booking summery:
+1. Tour Date
+2. Number of adults</t>
+  </si>
+  <si>
+    <t>Application does same behaviour for all link "Cancellation policy" display under Booking Summery</t>
+  </si>
+  <si>
+    <t>Application does same behaviour for all link "Show Details" display under Booking Summery</t>
+  </si>
+  <si>
+    <t>1. User is on Cart page and click on secure checkout
+2. User is on Checkout page.
+3. Click on "Show Dteails" display under Booking summery</t>
+  </si>
+  <si>
+    <t>Verify application display total price to pay at the end of section booking summery.</t>
+  </si>
+  <si>
+    <t>Verify application display multisave when user added more than one item in cart and total pay price calculated accordigly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on Cart page and click on secure checkout
+2. User is on Checkout page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on Cart page with more than 2 products and click on secure checkout.
+2. User is on Checkout page.
+</t>
+  </si>
+  <si>
+    <t>Verify application display message when user left name fields blank.
+1. Please enter the first name
+2. Please enter the Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on Cart page with more than 2 products and click on secure checkout.
+2. User is on Checkout page.
+3. Left name field blank
+4. Click on Proceed to payment
+</t>
   </si>
 </sst>
 </file>
@@ -3726,7 +3840,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C28"/>
+      <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3986,7 +4100,10 @@
       <c r="A28" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="59">
+        <f>COUNTIF(Checkout!A17:A70,"*")</f>
+        <v>12</v>
+      </c>
       <c r="C28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4009,7 +4126,7 @@
       </c>
       <c r="B31" s="71">
         <f>SUM(B23:B30)</f>
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C31" s="72"/>
     </row>
@@ -4618,7 +4735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -7254,17 +7371,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
@@ -7433,15 +7550,431 @@
         <v>90</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>257</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>258</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="685" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="685" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="282">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1206,6 +1206,14 @@
 2. User is on Checkout page.
 3. Left name field blank
 4. Click on Proceed to payment
+</t>
+  </si>
+  <si>
+    <t>Verify application display cart opage when user click on "Back to Cart" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on Cart page with more than 2 products and click on secure checkout.
+2. User is on Checkout page.
 </t>
   </si>
 </sst>
@@ -3839,7 +3847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
@@ -4102,7 +4110,7 @@
       </c>
       <c r="B28" s="59">
         <f>COUNTIF(Checkout!A17:A70,"*")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="60"/>
     </row>
@@ -4126,7 +4134,7 @@
       </c>
       <c r="B31" s="71">
         <f>SUM(B23:B30)</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="72"/>
     </row>
@@ -4180,7 +4188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5390,7 +5398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -7373,8 +7381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7733,10 +7741,16 @@
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>280</v>
+      </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>

--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="685" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="725" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Availability Page" sheetId="7" r:id="rId5"/>
     <sheet name="Cart Page" sheetId="8" r:id="rId6"/>
     <sheet name="Checkout" sheetId="9" r:id="rId7"/>
+    <sheet name="Payment Page" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="290">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1215,6 +1216,51 @@
     <t xml:space="preserve">1. User is on Cart page with more than 2 products and click on secure checkout.
 2. User is on Checkout page.
 </t>
+  </si>
+  <si>
+    <t>Verify application displays payment page when user click on "Proceed to payment" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on Cart page with more than 2 products and click on secure checkout.
+2. User is on Checkout page.
+3. Enter information.
+4. Click on "Proceed to payment" button.
+</t>
+  </si>
+  <si>
+    <t>Verify application display home page when user click on website logo display on topleft corner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on Cart page with more than 2 products and click on secure checkout.
+2. User is on Checkout page.
+3. Click on website logo.
+</t>
+  </si>
+  <si>
+    <t>1. Launch Ninja specific URL.
+2. User is on Home Page
+3. Click on product that have options.
+4. User is on product detail page.
+5. Enter valid information and click on Check availability button
+6. User is on availability page and click on add to cart.
+7. User is on Cart page and click on secure checkout
+8. User is on Checkout page.
+9. Enter information.
+10. Click on "Proceed to payment" button.</t>
+  </si>
+  <si>
+    <t>1. User is on payment page.</t>
+  </si>
+  <si>
+    <t>Verify Application display below mentioned tabs:
+1. Your details 
+2. Payment (Highlighted)
+3. Confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify application display below mentioned areas on payment page:
+1. Contact Information 
+2. </t>
   </si>
 </sst>
 </file>
@@ -3582,6 +3628,251 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3847,7 +4138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
@@ -4110,7 +4401,7 @@
       </c>
       <c r="B28" s="59">
         <f>COUNTIF(Checkout!A17:A70,"*")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" s="60"/>
     </row>
@@ -4118,7 +4409,10 @@
       <c r="A29" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="59">
+        <f>COUNTIF('Payment Page'!A17:A70,"*")</f>
+        <v>10</v>
+      </c>
       <c r="C29" s="60"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4134,7 +4428,7 @@
       </c>
       <c r="B31" s="71">
         <f>SUM(B23:B30)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C31" s="72"/>
     </row>
@@ -5398,7 +5692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -7381,8 +7675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A29"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7756,19 +8050,31 @@
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+    <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>282</v>
+      </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+    <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>284</v>
+      </c>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -7777,7 +8083,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -7786,7 +8092,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -7795,7 +8101,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -7804,7 +8110,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -7813,7 +8119,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -7822,7 +8128,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
       <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -8006,4 +8312,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="21">
+        <f>COUNTIF(F17:F31,"PASSED")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="88"/>
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24">
+        <f>COUNTIF(F17:F31,"FAILED")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89"/>
+      <c r="B8" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="43">
+        <f>SUM(C6,C7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="49">
+        <f>SUM(D6,D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="44">
+        <f>COUNTIF(G17:G31,"PENDING")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <f>COUNTIF(F17:F31,"PENDING")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="45">
+        <f>COUNTIF(G17:G31,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <f>COUNTIF(F17:F31,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="45">
+        <f>COUNTIF(G17:G31,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <f>COUNTIF(F17:F31,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82">
+        <f>SUM(D8:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="82">
+        <f>SUM(E8:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Cover Page'!$A$38:$A$46</xm:f>
+          </x14:formula1>
+          <xm:sqref>F17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="304">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1258,9 +1258,87 @@
 3. Confirm</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify application display below mentioned areas on payment page:
+    <t>Verify application display below mentioned areas on payment page:
 1. Contact Information 
-2. </t>
+2. Secure Card Payment
+3. Billing Address</t>
+  </si>
+  <si>
+    <t>Application display below mentioned fields under Contact Information section:
+1. Email address
+2. Confirm email address
+3. Phone</t>
+  </si>
+  <si>
+    <t>Application display below mentioned fields under Secure Card Payment section:
+1. Card type*
+2. Card Number*
+3. Cardholder name*
+4. Expiry date*
+5. Security code*
+6. What is this?</t>
+  </si>
+  <si>
+    <t>Application display below mentioned fields under  Billing Address section:
+1. Address (Line1)*
+2. Address (Line 2) 
+3. City*
+4. Country/State 
+5. Post code/ Zip code*
+6. Country*
+7. Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Verify applicationn displays "Confirm and Pay" button</t>
+  </si>
+  <si>
+    <t>1. User is on payment page.
+2. Click on "Cancellation policy"</t>
+  </si>
+  <si>
+    <t>1. User is on payment page.
+2. Click on "Show details"</t>
+  </si>
+  <si>
+    <t>Verify error messages when user left any reletive field blank under Contact Information  and click on Confirm and Pay button:
+1. Please enter your email address
+2. Please enter your email address
+3. Please enter phone number</t>
+  </si>
+  <si>
+    <t>Verify error messages when user left any reletive field blank under Secure Card Payment  and click on Confirm and Pay button:
+1. Please enter the numeric card number
+2. Please enter the name
+3. Please enter the security code</t>
+  </si>
+  <si>
+    <t>Verify application display checkout page when user click on Your Details tab display under header.</t>
+  </si>
+  <si>
+    <t>1. User is on payment page.
+2. Left fields blank under Contact Information
+3. Click on Confirm and Pay button.</t>
+  </si>
+  <si>
+    <t>1. User is on payment page.
+2. Left fields blank under Secure Card Payment
+3. Click on Confirm and Pay button.</t>
+  </si>
+  <si>
+    <t>Verify error messages when user left any reletive field blank under  Billing Address  and click on Confirm and Pay button:
+1. Please enter the Address1
+2. Please enter the city
+3. Please enter the Post code/Zip code
+4. Please enter Terms &amp; conditions to proceed</t>
+  </si>
+  <si>
+    <t>1. User is on payment page.
+2. Left fields blank under Billing Address
+3. Click on Confirm and Pay button.</t>
+  </si>
+  <si>
+    <t>1. User is on payment page.
+2. Click on Your Details tab.</t>
   </si>
 </sst>
 </file>
@@ -4138,7 +4216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
@@ -4410,8 +4488,8 @@
         <v>63</v>
       </c>
       <c r="B29" s="59">
-        <f>COUNTIF('Payment Page'!A17:A70,"*")</f>
-        <v>10</v>
+        <f>COUNTIF('Payment Page'!A17:A69,"*")</f>
+        <v>19</v>
       </c>
       <c r="C29" s="60"/>
     </row>
@@ -4428,7 +4506,7 @@
       </c>
       <c r="B31" s="71">
         <f>SUM(B23:B30)</f>
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C31" s="72"/>
     </row>
@@ -7675,8 +7753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8316,10 +8394,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8551,11 +8629,13 @@
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="29" t="s">
+        <v>287</v>
+      </c>
       <c r="C21" s="29" t="s">
         <v>289</v>
       </c>
@@ -8564,60 +8644,215 @@
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>290</v>
+      </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>291</v>
+      </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>292</v>
+      </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="B25" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>293</v>
+      </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8642,7 +8877,7 @@
           <x14:formula1>
             <xm:f>'Cover Page'!$A$38:$A$46</xm:f>
           </x14:formula1>
-          <xm:sqref>F17</xm:sqref>
+          <xm:sqref>F17:F35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="725" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="725"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Cart Page" sheetId="8" r:id="rId6"/>
     <sheet name="Checkout" sheetId="9" r:id="rId7"/>
     <sheet name="Payment Page" sheetId="10" r:id="rId8"/>
+    <sheet name="Confirmation Page" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="329">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1339,6 +1340,127 @@
   <si>
     <t>1. User is on payment page.
 2. Click on Your Details tab.</t>
+  </si>
+  <si>
+    <t>1. User is on payment page.
+2. Left fields blank under Billing Address
+3. Click on Confirm and Pay button.
+4. Enter details.
+5. Click on Confirm and Pay button.</t>
+  </si>
+  <si>
+    <t>Verify application displays contact customer service when booking fails.</t>
+  </si>
+  <si>
+    <t>Verify application display below mentioned items with contact customer support module:
+1. Message in red (Unfortunately we have been unable to process your payment. Please review your credit card details and try again. Or get in touch with our customer service team who will be happy to complete the booking process with you.)
+2. Heading "Secure Card Payment" (This is a secure SSL encrypted payment)
+3. TRY AGAIN
+4. LET US HELP</t>
+  </si>
+  <si>
+    <t>Verify below mentioned information display under try again:
+Message: Please ensure the following details are all correct and try again:
+1. Card number
+2. Cardholder name
+3. Expiry date
+4. Security code
+5. Billing Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify below mentioned information display under LET US HELP:
+Message: You can call our 24/7 customer service on 0203 355 1240
+let us get back to you via phone or email:
+Your phone: 
+Your Email: 
+</t>
+  </si>
+  <si>
+    <t>Application display added product in cart with same information as selected previously.</t>
+  </si>
+  <si>
+    <t>1. User is on payment page.
+2. Left fields blank under Billing Address
+3. Click on Confirm and Pay button.
+4. Enter details with incorrct card number.
+5. Click on Confirm and Pay button.
+6. Conatct customer support.</t>
+  </si>
+  <si>
+    <t>1. User is on payment page.
+2. Left fields blank under Billing Address
+3. Click on Confirm and Pay button.
+4. Enter details with incorrct card number.
+5. Click on Confirm and Pay button.
+6. Conatct customer support.
+7. User navigate to home page by click on logo display on top left corner.</t>
+  </si>
+  <si>
+    <t>1. Launch Ninja specific URL.
+2. User is on Home Page
+3. Click on product that have options.
+4. User is on product detail page.
+5. Enter valid information and click on Check availability button
+6. User is on availability page and click on add to cart.
+7. User is on Cart page and click on secure checkout
+8. User is on Checkout page.
+9. Enter information.
+10. Click on "Proceed to payment" button.
+11. Enter information in all fields.
+12. Click on Confirm and Pay button.</t>
+  </si>
+  <si>
+    <t>Verify application displays Confirmation page.</t>
+  </si>
+  <si>
+    <t>1. User is on confirmation page.</t>
+  </si>
+  <si>
+    <t>Verify Application display below mentioned tabs:
+1. Your details 
+2. Payment
+3. Confirm  (Highlighted)</t>
+  </si>
+  <si>
+    <t>Verify application displays  "Booking Reference Number:  &lt;&lt;Booking Number&gt;&gt;"</t>
+  </si>
+  <si>
+    <t>Verify application displays Payment Summary below booking referance number.</t>
+  </si>
+  <si>
+    <t>Verify application displays Product Name and price.</t>
+  </si>
+  <si>
+    <t>Verify application displays "Total Booking Amount "</t>
+  </si>
+  <si>
+    <t>Verify application displays social media icons with product names.</t>
+  </si>
+  <si>
+    <t>Verify if product is tow step product application displays price with label "To be Charged on Confirmation of Pending Booking Requests"</t>
+  </si>
+  <si>
+    <t>Verify if product is Free sale  product application displays price with label "Total Charged Amount"</t>
+  </si>
+  <si>
+    <t>Verify application displays link "Booking terms and conditions"</t>
+  </si>
+  <si>
+    <t>Verify application displays "Booking voucher(s) available to print immediately"</t>
+  </si>
+  <si>
+    <t>1. User is on confirmation page.
+2. click on  "Booking terms and conditions" link</t>
+  </si>
+  <si>
+    <t>Verify application displays "booking-agreement" page.</t>
+  </si>
+  <si>
+    <t>1. User is on confirmation page.
+2. Click on "Click here to print the vouchers(PDF Format) »" link</t>
+  </si>
+  <si>
+    <t>Verify application downloads PDF voucher.</t>
   </si>
 </sst>
 </file>
@@ -2080,6 +2202,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2115,12 +2246,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2209,9 +2334,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3951,6 +4073,251 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="1781175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4216,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,20 +4597,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4355,14 +4722,14 @@
       <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -4408,107 +4775,110 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="70"/>
+      <c r="C22" s="73"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="62">
         <f>COUNTIF('Home Page'!A17:A142,"*")</f>
         <v>21</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="63"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="62">
         <f>COUNTIF(Search!A17:A132,"*")</f>
         <v>25</v>
       </c>
-      <c r="C24" s="60"/>
+      <c r="C24" s="63"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="62">
         <f>COUNTIF('Product Deatil Page'!A17:A39,"*")</f>
         <v>17</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="63"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="62">
         <f>COUNTIF('Availability Page'!A17:A30,"*")</f>
         <v>14</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="63"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="62">
         <f>COUNTIF('Cart Page'!A17:A70,"*")</f>
         <v>23</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="63"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="62">
         <f>COUNTIF(Checkout!A17:A70,"*")</f>
         <v>15</v>
       </c>
-      <c r="C28" s="60"/>
+      <c r="C28" s="63"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="62">
         <f>COUNTIF('Payment Page'!A17:A69,"*")</f>
-        <v>19</v>
-      </c>
-      <c r="C29" s="60"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="63"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
+      <c r="B30" s="62">
+        <f>COUNTIF('Confirmation Page'!A17:A69,"*")</f>
+        <v>15</v>
+      </c>
+      <c r="C30" s="63"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="71">
+      <c r="B31" s="60">
         <f>SUM(B23:B30)</f>
-        <v>134</v>
-      </c>
-      <c r="C31" s="72"/>
+        <v>154</v>
+      </c>
+      <c r="C31" s="61"/>
     </row>
     <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -4537,6 +4907,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -4544,12 +4920,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4576,20 +4946,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
@@ -4598,7 +4968,7 @@
       <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -4611,7 +4981,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -4622,11 +4992,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -4637,11 +5007,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G61,"PENDING")</f>
         <v>0</v>
@@ -4652,11 +5022,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G61,"IN PROGRESS")</f>
         <v>0</v>
@@ -4667,11 +5037,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G61,"BLOCKED")</f>
         <v>0</v>
@@ -4682,28 +5052,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82">
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="83">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -5131,27 +5501,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -5164,7 +5534,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -5175,11 +5545,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -5190,11 +5560,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G49,"PENDING")</f>
         <v>0</v>
@@ -5205,11 +5575,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G49,"IN PROGRESS")</f>
         <v>0</v>
@@ -5220,11 +5590,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G49,"BLOCKED")</f>
         <v>0</v>
@@ -5235,28 +5605,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82">
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="83">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -5476,14 +5846,14 @@
       <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="101"/>
     </row>
     <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
@@ -5554,14 +5924,14 @@
       <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="101"/>
     </row>
     <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
@@ -5786,27 +6156,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -5819,7 +6189,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -5830,11 +6200,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -5845,11 +6215,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G46,"PENDING")</f>
         <v>0</v>
@@ -5860,11 +6230,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G46,"IN PROGRESS")</f>
         <v>0</v>
@@ -5875,11 +6245,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G46,"BLOCKED")</f>
         <v>0</v>
@@ -5890,28 +6260,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82">
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="83">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -6236,7 +6606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -6252,27 +6622,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -6285,7 +6655,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -6296,11 +6666,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -6311,11 +6681,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G30,"PENDING")</f>
         <v>0</v>
@@ -6326,11 +6696,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G30,"IN PROGRESS")</f>
         <v>0</v>
@@ -6341,11 +6711,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G30,"BLOCKED")</f>
         <v>0</v>
@@ -6356,28 +6726,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82">
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="83">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -6695,27 +7065,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -6728,7 +7098,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -6739,11 +7109,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -6754,11 +7124,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G31,"PENDING")</f>
         <v>0</v>
@@ -6769,11 +7139,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G31,"IN PROGRESS")</f>
         <v>0</v>
@@ -6784,11 +7154,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G31,"BLOCKED")</f>
         <v>0</v>
@@ -6799,28 +7169,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82">
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="83">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -7216,520 +7586,520 @@
       <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="101"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="101"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="101"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="101"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="101"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="101"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="101"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="101"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="101"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="101"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="101"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="101"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="101"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="101"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="101"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="101"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="101"/>
-      <c r="C68" s="101"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="101"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="101"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="101"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="101"/>
-      <c r="C71" s="101"/>
-      <c r="D71" s="101"/>
-      <c r="E71" s="101"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="101"/>
-      <c r="C72" s="101"/>
-      <c r="D72" s="101"/>
-      <c r="E72" s="101"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="101"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="101"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="101"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="101"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="101"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="101"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="101"/>
-      <c r="C76" s="101"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="101"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="101"/>
-      <c r="C77" s="101"/>
-      <c r="D77" s="101"/>
-      <c r="E77" s="101"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="101"/>
-      <c r="C78" s="101"/>
-      <c r="D78" s="101"/>
-      <c r="E78" s="101"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="101"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="101"/>
-      <c r="E79" s="101"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="101"/>
-      <c r="C80" s="101"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="101"/>
-      <c r="C81" s="101"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="101"/>
-      <c r="C82" s="101"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="101"/>
-      <c r="C83" s="101"/>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="101"/>
-      <c r="C84" s="101"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="101"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="101"/>
-      <c r="C85" s="101"/>
-      <c r="D85" s="101"/>
-      <c r="E85" s="101"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="101"/>
-      <c r="C86" s="101"/>
-      <c r="D86" s="101"/>
-      <c r="E86" s="101"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="101"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="101"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="101"/>
-      <c r="C88" s="101"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="101"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="101"/>
-      <c r="C89" s="101"/>
-      <c r="D89" s="101"/>
-      <c r="E89" s="101"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="101"/>
-      <c r="C90" s="101"/>
-      <c r="D90" s="101"/>
-      <c r="E90" s="101"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="101"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="101"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="101"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="101"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="101"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="101"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="59"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="101"/>
-      <c r="C95" s="101"/>
-      <c r="D95" s="101"/>
-      <c r="E95" s="101"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="101"/>
-      <c r="C96" s="101"/>
-      <c r="D96" s="101"/>
-      <c r="E96" s="101"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="59"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="101"/>
-      <c r="C97" s="101"/>
-      <c r="D97" s="101"/>
-      <c r="E97" s="101"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="59"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="101"/>
-      <c r="C98" s="101"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="101"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="101"/>
-      <c r="C99" s="101"/>
-      <c r="D99" s="101"/>
-      <c r="E99" s="101"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="101"/>
-      <c r="C100" s="101"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="101"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="101"/>
-      <c r="C101" s="101"/>
-      <c r="D101" s="101"/>
-      <c r="E101" s="101"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="101"/>
-      <c r="C102" s="101"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="101"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="59"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="101"/>
-      <c r="C103" s="101"/>
-      <c r="D103" s="101"/>
-      <c r="E103" s="101"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="101"/>
-      <c r="C104" s="101"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="101"/>
-      <c r="C105" s="101"/>
-      <c r="D105" s="101"/>
-      <c r="E105" s="101"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="101"/>
-      <c r="C106" s="101"/>
-      <c r="D106" s="101"/>
-      <c r="E106" s="101"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="59"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="101"/>
-      <c r="C107" s="101"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="101"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="101"/>
-      <c r="C108" s="101"/>
-      <c r="D108" s="101"/>
-      <c r="E108" s="101"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="59"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="101"/>
-      <c r="C109" s="101"/>
-      <c r="D109" s="101"/>
-      <c r="E109" s="101"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="59"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="101"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="59"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="101"/>
-      <c r="C111" s="101"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="101"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="101"/>
-      <c r="C112" s="101"/>
-      <c r="D112" s="101"/>
-      <c r="E112" s="101"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="59"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="101"/>
-      <c r="C113" s="101"/>
-      <c r="D113" s="101"/>
-      <c r="E113" s="101"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="59"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="101"/>
-      <c r="C114" s="101"/>
-      <c r="D114" s="101"/>
-      <c r="E114" s="101"/>
+      <c r="B114" s="59"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="59"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="101"/>
-      <c r="C115" s="101"/>
-      <c r="D115" s="101"/>
-      <c r="E115" s="101"/>
+      <c r="B115" s="59"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="59"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="101"/>
-      <c r="C116" s="101"/>
-      <c r="D116" s="101"/>
-      <c r="E116" s="101"/>
+      <c r="B116" s="59"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="59"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="101"/>
-      <c r="C117" s="101"/>
-      <c r="D117" s="101"/>
-      <c r="E117" s="101"/>
+      <c r="B117" s="59"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="59"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="101"/>
-      <c r="C118" s="101"/>
-      <c r="D118" s="101"/>
-      <c r="E118" s="101"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="59"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="101"/>
-      <c r="C119" s="101"/>
-      <c r="D119" s="101"/>
-      <c r="E119" s="101"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="59"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="101"/>
-      <c r="C120" s="101"/>
-      <c r="D120" s="101"/>
-      <c r="E120" s="101"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="59"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="101"/>
-      <c r="C121" s="101"/>
-      <c r="D121" s="101"/>
-      <c r="E121" s="101"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="59"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="101"/>
-      <c r="C122" s="101"/>
-      <c r="D122" s="101"/>
-      <c r="E122" s="101"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="59"/>
+      <c r="E122" s="59"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="101"/>
-      <c r="C123" s="101"/>
-      <c r="D123" s="101"/>
-      <c r="E123" s="101"/>
+      <c r="B123" s="59"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="59"/>
+      <c r="E123" s="59"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="101"/>
-      <c r="C124" s="101"/>
-      <c r="D124" s="101"/>
-      <c r="E124" s="101"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="59"/>
+      <c r="E124" s="59"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="101"/>
-      <c r="C125" s="101"/>
-      <c r="D125" s="101"/>
-      <c r="E125" s="101"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="59"/>
+      <c r="E125" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7768,27 +8138,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -7801,7 +8171,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -7812,11 +8182,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -7827,11 +8197,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G31,"PENDING")</f>
         <v>0</v>
@@ -7842,11 +8212,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G31,"IN PROGRESS")</f>
         <v>0</v>
@@ -7857,11 +8227,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G31,"BLOCKED")</f>
         <v>0</v>
@@ -7872,28 +8242,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82">
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="83">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -8394,10 +8764,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8412,27 +8782,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -8445,7 +8815,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -8456,11 +8826,11 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="43">
         <f>SUM(C6,C7)</f>
         <v>0</v>
@@ -8471,11 +8841,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="44">
         <f>COUNTIF(G17:G31,"PENDING")</f>
         <v>0</v>
@@ -8486,11 +8856,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="45">
         <f>COUNTIF(G17:G31,"IN PROGRESS")</f>
         <v>0</v>
@@ -8501,11 +8871,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="45">
         <f>COUNTIF(G17:G31,"BLOCKED")</f>
         <v>0</v>
@@ -8516,28 +8886,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82">
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83">
         <f>SUM(D8:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="83">
         <f>SUM(E8:E11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -8853,6 +9223,81 @@
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8883,4 +9328,436 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="21">
+        <f>COUNTIF(F17:F31,"PASSED")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="89"/>
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24">
+        <f>COUNTIF(F17:F31,"FAILED")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="43">
+        <f>SUM(C6,C7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="49">
+        <f>SUM(D6,D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="44">
+        <f>COUNTIF(G17:G31,"PENDING")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <f>COUNTIF(F17:F31,"PENDING")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="45">
+        <f>COUNTIF(G17:G31,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <f>COUNTIF(F17:F31,"IN PROGRESS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="45">
+        <f>COUNTIF(G17:G31,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <f>COUNTIF(F17:F31,"BLOCKED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83">
+        <f>SUM(D8:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="83">
+        <f>SUM(E8:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Cover Page'!$A$38:$A$46</xm:f>
+          </x14:formula1>
+          <xm:sqref>F17:F31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="338">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1461,6 +1461,59 @@
   </si>
   <si>
     <t>Verify application downloads PDF voucher.</t>
+  </si>
+  <si>
+    <t>1. User is on confirmation page.
+2. Click on "Click here to print the vouchers(PDF Format) »" link
+3. Open PDF voucher</t>
+  </si>
+  <si>
+    <t>Application dispalys ninja website logo on topleft corner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application display Isango logo on top right corner </t>
+  </si>
+  <si>
+    <t>Application display booking refrence number</t>
+  </si>
+  <si>
+    <t>Application display below mentioned sections in PDF voucher
+1. Booking Information
+2. Tour Schedule
+3. Contact Details
+4. Payment Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application displays below mentioned fields under booking section:
+1. Lead Traveller 
+2. Tour Booked 
+3. Option Name 
+4. Total Tour Price 
+5. No ofAdults 
+6. No ofChildren 
+7. DateofTour
+8. Special Request </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application displays below mentioned fields under Tour Schedule:
+1. Meeting Point 
+2. Ending Point 
+3. Start Time 
+4. Duration 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application displays below mentioned fields under Contact Details:
+1. Need further assistance or bookings
+2. Email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application displays below mentioned fields under Payment Summary:
+1. Product Name 
+2. Price
+3. Total Booking Amount 
+4. Total Charged Amount 
+5.  To be Charged on Confirmation ofPending Booking Requests </t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2022,12 +2075,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2205,12 +2269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2246,6 +2304,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2334,6 +2398,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4583,7 +4650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
@@ -4597,20 +4664,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4722,14 +4789,14 @@
       <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -4775,110 +4842,110 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="71"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="60">
         <f>COUNTIF('Home Page'!A17:A142,"*")</f>
         <v>21</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="61"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="60">
         <f>COUNTIF(Search!A17:A132,"*")</f>
         <v>25</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="61"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="60">
         <f>COUNTIF('Product Deatil Page'!A17:A39,"*")</f>
         <v>17</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="61"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="60">
         <f>COUNTIF('Availability Page'!A17:A30,"*")</f>
         <v>14</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="61"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="60">
         <f>COUNTIF('Cart Page'!A17:A70,"*")</f>
         <v>23</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="61"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="60">
         <f>COUNTIF(Checkout!A17:A70,"*")</f>
         <v>15</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="61"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="60">
         <f>COUNTIF('Payment Page'!A17:A69,"*")</f>
         <v>24</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="61"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="60">
         <f>COUNTIF('Confirmation Page'!A17:A69,"*")</f>
-        <v>15</v>
-      </c>
-      <c r="C30" s="63"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="61"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="60">
+      <c r="B31" s="72">
         <f>SUM(B23:B30)</f>
-        <v>154</v>
-      </c>
-      <c r="C31" s="61"/>
+        <v>162</v>
+      </c>
+      <c r="C31" s="73"/>
     </row>
     <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -4907,12 +4974,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -4920,6 +4981,12 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9332,10 +9399,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9731,6 +9798,150 @@
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="102"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="102"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="102"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="102"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="102"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="102"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="102"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
+++ b/Updated TestCases/Ninja/Regression TestCases/Ninja_Isango_Test_Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="725" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="339">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1468,23 +1468,20 @@
 3. Open PDF voucher</t>
   </si>
   <si>
-    <t>Application dispalys ninja website logo on topleft corner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application display Isango logo on top right corner </t>
-  </si>
-  <si>
-    <t>Application display booking refrence number</t>
-  </si>
-  <si>
-    <t>Application display below mentioned sections in PDF voucher
+    <t xml:space="preserve">Verify application display Isango logo on top right corner </t>
+  </si>
+  <si>
+    <t>Verify application display booking refrence number</t>
+  </si>
+  <si>
+    <t>Verify application display below mentioned sections in PDF voucher
 1. Booking Information
 2. Tour Schedule
 3. Contact Details
 4. Payment Summary</t>
   </si>
   <si>
-    <t xml:space="preserve">Application displays below mentioned fields under booking section:
+    <t xml:space="preserve">Verify application displays below mentioned fields under booking section:
 1. Lead Traveller 
 2. Tour Booked 
 3. Option Name 
@@ -1495,7 +1492,7 @@
 8. Special Request </t>
   </si>
   <si>
-    <t xml:space="preserve">Application displays below mentioned fields under Tour Schedule:
+    <t xml:space="preserve">Verify application displays below mentioned fields under Tour Schedule:
 1. Meeting Point 
 2. Ending Point 
 3. Start Time 
@@ -1503,17 +1500,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Application displays below mentioned fields under Contact Details:
+    <t xml:space="preserve">Verify application displays below mentioned fields under Contact Details:
 1. Need further assistance or bookings
 2. Email </t>
   </si>
   <si>
-    <t xml:space="preserve">Application displays below mentioned fields under Payment Summary:
+    <t xml:space="preserve">Verify application displays below mentioned fields under Payment Summary:
 1. Product Name 
 2. Price
 3. Total Booking Amount 
 4. Total Charged Amount 
 5.  To be Charged on Confirmation ofPending Booking Requests </t>
+  </si>
+  <si>
+    <t>Verify application dispalys ninja website logo on topleft corner.</t>
+  </si>
+  <si>
+    <t>Verify application displays same information as entered by user while making booking for products.</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2075,23 +2078,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2398,9 +2390,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4650,7 +4639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
@@ -4932,8 +4921,8 @@
         <v>64</v>
       </c>
       <c r="B30" s="60">
-        <f>COUNTIF('Confirmation Page'!A17:A69,"*")</f>
-        <v>23</v>
+        <f>COUNTIF('Confirmation Page'!A17:A59,"*")</f>
+        <v>24</v>
       </c>
       <c r="C30" s="61"/>
     </row>
@@ -4943,7 +4932,7 @@
       </c>
       <c r="B31" s="72">
         <f>SUM(B23:B30)</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C31" s="73"/>
     </row>
@@ -7116,8 +7105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8190,8 +8179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C27"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9399,10 +9388,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9807,7 +9796,7 @@
         <v>329</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
@@ -9822,7 +9811,7 @@
         <v>329</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -9837,7 +9826,7 @@
         <v>329</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
@@ -9852,7 +9841,7 @@
         <v>329</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -9867,7 +9856,7 @@
         <v>329</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
@@ -9882,7 +9871,7 @@
         <v>329</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
@@ -9897,7 +9886,7 @@
         <v>329</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
@@ -9912,36 +9901,27 @@
         <v>329</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="102"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="102"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="102"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="102"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="102"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="102"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="102"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="102"/>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
